--- a/Read_2023.xlsx
+++ b/Read_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonclark/Dropbox/Mac/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonclark/Library/Mobile Documents/com~apple~CloudDocs/LC_DA/Git/Read_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E3EEAF-927F-4D4D-8327-564FE2836CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C39FF1-17E8-464E-BE86-2004B6ADD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4055B599-591D-7E4D-B612-8DE324817C2B}"/>
   </bookViews>
@@ -615,8 +615,8 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1503,6 +1503,9 @@
       <c r="D58">
         <v>1</v>
       </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">

--- a/Read_2023.xlsx
+++ b/Read_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonclark/Library/Mobile Documents/com~apple~CloudDocs/LC_DA/Git/Read_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C39FF1-17E8-464E-BE86-2004B6ADD277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B887DF25-8FAE-C74F-8A59-74E027CDCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4055B599-591D-7E4D-B612-8DE324817C2B}"/>
   </bookViews>
@@ -122,48 +122,18 @@
     <t>The Courage to Be Disliked</t>
   </si>
   <si>
-    <t>Slave to Sensation</t>
-  </si>
-  <si>
-    <t>Visions of Heat</t>
-  </si>
-  <si>
-    <t>Caressed by Ice</t>
-  </si>
-  <si>
     <t>The Catastrophe Con</t>
   </si>
   <si>
     <t>Light of the Jedi</t>
   </si>
   <si>
-    <t>Mine to Possess</t>
-  </si>
-  <si>
-    <t>Hostage to Pleasure</t>
-  </si>
-  <si>
     <t>Dark Temple</t>
   </si>
   <si>
     <t>Mutiny on Mon Cala</t>
   </si>
   <si>
-    <t>Branded by Fire</t>
-  </si>
-  <si>
-    <t>Blaze of Memory</t>
-  </si>
-  <si>
-    <t>Bonds of Justice</t>
-  </si>
-  <si>
-    <t>Play of Passion</t>
-  </si>
-  <si>
-    <t>Kiss of Snow</t>
-  </si>
-  <si>
     <t>Lore Olymous Vol. 4</t>
   </si>
   <si>
@@ -176,18 +146,9 @@
     <t>Rule of Wolves</t>
   </si>
   <si>
-    <t>The Tyrant Alpha's Rejected Mate</t>
-  </si>
-  <si>
-    <t>The Heir Apparent's Rejected Mate</t>
-  </si>
-  <si>
     <t>Unspeakable Rebel Superweapon</t>
   </si>
   <si>
-    <t>The Lone Wolf's Rejected Mate</t>
-  </si>
-  <si>
     <t>The Immortal Heights</t>
   </si>
   <si>
@@ -197,9 +158,6 @@
     <t>A Soul of Ash and Blood</t>
   </si>
   <si>
-    <t>Desire in his Blood</t>
-  </si>
-  <si>
     <t>Fourth Wing</t>
   </si>
   <si>
@@ -261,6 +219,48 @@
   </si>
   <si>
     <t>YA</t>
+  </si>
+  <si>
+    <t>Psy-Changling 1</t>
+  </si>
+  <si>
+    <t>Psy-Changling 2</t>
+  </si>
+  <si>
+    <t>Psy-Changling 3</t>
+  </si>
+  <si>
+    <t>Psy-Changling 4</t>
+  </si>
+  <si>
+    <t>Psy-Changling 5</t>
+  </si>
+  <si>
+    <t>Psy-Changling 6</t>
+  </si>
+  <si>
+    <t>Psy-Changling 7</t>
+  </si>
+  <si>
+    <t>Psy-Changling 8</t>
+  </si>
+  <si>
+    <t>Psy-Changling 9</t>
+  </si>
+  <si>
+    <t>Psy-Changling 10</t>
+  </si>
+  <si>
+    <t>Five Packs 1</t>
+  </si>
+  <si>
+    <t>Five Packs 2</t>
+  </si>
+  <si>
+    <t>Five Packs 3</t>
+  </si>
+  <si>
+    <t>Kylorr 1</t>
   </si>
 </sst>
 </file>
@@ -615,8 +615,8 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I47" sqref="I47"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,19 +637,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B27">
         <v>412</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B28">
         <v>332</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B29">
         <v>352</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>152</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>380</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>328</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>330</v>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>120</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>144</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="B36">
         <v>358</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B37">
         <v>373</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B38">
         <v>348</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B39">
         <v>321</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>432</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>416</v>
@@ -1241,7 +1241,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>434</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>168</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>592</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B45">
         <v>382</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>426</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B47">
         <v>112</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B48">
         <v>316</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B49">
         <v>436</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B50">
         <v>478</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B51">
         <v>703</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>428</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B53">
         <v>500</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B54">
         <v>439</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>244</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B56">
         <v>592</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B57">
         <v>144</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B58">
         <v>425</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B59">
         <v>406</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>400</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B61">
         <v>252</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B62">
         <v>144</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B63">
         <v>353</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>272</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B65">
         <v>632</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B66">
         <v>623</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B67">
         <v>146</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>128</v>

--- a/Read_2023.xlsx
+++ b/Read_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shannonclark/Library/Mobile Documents/com~apple~CloudDocs/LC_DA/Git/Read_2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B887DF25-8FAE-C74F-8A59-74E027CDCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C345A9-F483-2049-BB27-01497BA67656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4055B599-591D-7E4D-B612-8DE324817C2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Title</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Kylorr 1</t>
+  </si>
+  <si>
+    <t>Crush</t>
   </si>
 </sst>
 </file>
@@ -612,11 +615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8736C55A-F413-D446-A948-5A1D3C45FEB3}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>54</v>
       </c>
@@ -1645,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -1656,6 +1659,26 @@
         <v>0</v>
       </c>
       <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69">
+        <v>704</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
         <v>1</v>
       </c>
     </row>
